--- a/frontend/docs/deelnemerslijsten/deelnemers valentijnscup 2020.xlsx
+++ b/frontend/docs/deelnemerslijsten/deelnemers valentijnscup 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorritveenstra/Projecten/valentijnscup/frontend/docs/deelnemerslijsten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC61CD-5111-2A4D-A51A-696700897AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2727A9AA-4E6E-9143-AEA7-A4B709E7396F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1820" windowWidth="38400" windowHeight="21140" xr2:uid="{47ADC810-319A-ED4B-9DED-7D87FCF41EB9}"/>
+    <workbookView xWindow="28800" yWindow="-2160" windowWidth="38400" windowHeight="21600" xr2:uid="{47ADC810-319A-ED4B-9DED-7D87FCF41EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="628">
   <si>
     <t>Nummer</t>
   </si>
@@ -276,12 +278,6 @@
     <t>E-senior</t>
   </si>
   <si>
-    <t>Daan Waar</t>
-  </si>
-  <si>
-    <t>Nynke Flapper</t>
-  </si>
-  <si>
     <t xml:space="preserve">E-jeugd </t>
   </si>
   <si>
@@ -315,15 +311,6 @@
     <t>Amber Kisters</t>
   </si>
   <si>
-    <t>Mirtinthe Mullender</t>
-  </si>
-  <si>
-    <t>Angela Zevenhuizen</t>
-  </si>
-  <si>
-    <t>Nienke Eelkema</t>
-  </si>
-  <si>
     <t>TGD Acro Dokkum</t>
   </si>
   <si>
@@ -342,21 +329,12 @@
     <t>Nienke Stuiver</t>
   </si>
   <si>
-    <t>Chayenne de Jong</t>
-  </si>
-  <si>
     <t>Melanie van Zwieten</t>
   </si>
   <si>
     <t>Iris Vlietstra</t>
   </si>
   <si>
-    <t>Ylja de Klein</t>
-  </si>
-  <si>
-    <t>Noa Bosgraaf</t>
-  </si>
-  <si>
     <t>Meike Knol</t>
   </si>
   <si>
@@ -792,9 +770,6 @@
     <t>Emma Riemersma</t>
   </si>
   <si>
-    <t>Soraya de Jong</t>
-  </si>
-  <si>
     <t>Querijn Jansen</t>
   </si>
   <si>
@@ -975,9 +950,6 @@
     <t>Djura Yavuz</t>
   </si>
   <si>
-    <t>Renee Kossen</t>
-  </si>
-  <si>
     <t>Bo van den Bliek</t>
   </si>
   <si>
@@ -1104,9 +1076,6 @@
     <t>Julia Ludema</t>
   </si>
   <si>
-    <t>Merinthe Buurlage</t>
-  </si>
-  <si>
     <t>Meike Tognini</t>
   </si>
   <si>
@@ -1257,15 +1226,6 @@
     <t>Feline Bandringa</t>
   </si>
   <si>
-    <t>Selina Bruinsma</t>
-  </si>
-  <si>
-    <t>Kristine van der Woude</t>
-  </si>
-  <si>
-    <t>Eline van Breden</t>
-  </si>
-  <si>
     <t>Annejel Dijkstra</t>
   </si>
   <si>
@@ -1296,12 +1256,6 @@
     <t>Mare van der Meulen</t>
   </si>
   <si>
-    <t>Aileen Werkman</t>
-  </si>
-  <si>
-    <t>Dewi Snijder</t>
-  </si>
-  <si>
     <t>Kirsten Mussche</t>
   </si>
   <si>
@@ -1317,9 +1271,6 @@
     <t>Kaylee van Dijk</t>
   </si>
   <si>
-    <t>Doreen Slot</t>
-  </si>
-  <si>
     <t>Lotte van Sluijs</t>
   </si>
   <si>
@@ -1347,15 +1298,6 @@
     <t>Alana Kruid</t>
   </si>
   <si>
-    <t>Mariska Onrust-Blok</t>
-  </si>
-  <si>
-    <t>Valerie Kesselaar</t>
-  </si>
-  <si>
-    <t>Lea Troostheijde</t>
-  </si>
-  <si>
     <t>Mirjanna Damstra</t>
   </si>
   <si>
@@ -1419,12 +1361,6 @@
     <t>Rianne Bakker</t>
   </si>
   <si>
-    <t>Lucynda Zwama</t>
-  </si>
-  <si>
-    <t>Joelle Boonstra</t>
-  </si>
-  <si>
     <t>Larissa de Wolff</t>
   </si>
   <si>
@@ -1443,9 +1379,6 @@
     <t>Charissa Terpstra</t>
   </si>
   <si>
-    <t>Yvonne Henstra</t>
-  </si>
-  <si>
     <t>Julia Meester</t>
   </si>
   <si>
@@ -1455,12 +1388,6 @@
     <t>Sophie Touker</t>
   </si>
   <si>
-    <t>Jeltje de Wind</t>
-  </si>
-  <si>
-    <t>Mariska de Jong</t>
-  </si>
-  <si>
     <t>Dian Smit</t>
   </si>
   <si>
@@ -1572,15 +1499,6 @@
     <t>Angelina Sprik</t>
   </si>
   <si>
-    <t>ilse Visscher</t>
-  </si>
-  <si>
-    <t>Danique Salomé</t>
-  </si>
-  <si>
-    <t>Kiki Houtman</t>
-  </si>
-  <si>
     <t>Carmen Visser</t>
   </si>
   <si>
@@ -1665,15 +1583,6 @@
     <t>TGD Dokkum</t>
   </si>
   <si>
-    <t>Indy van der Meulen</t>
-  </si>
-  <si>
-    <t>Hilse van der Woude</t>
-  </si>
-  <si>
-    <t>Anniek Braam</t>
-  </si>
-  <si>
     <t>Riann Horrel</t>
   </si>
   <si>
@@ -1803,9 +1712,6 @@
     <t>Inge Grob</t>
   </si>
   <si>
-    <t>Janet van de Meulen</t>
-  </si>
-  <si>
     <t>Arwen Bo de Jager</t>
   </si>
   <si>
@@ -1890,12 +1796,6 @@
     <t>Lynn Kooistra</t>
   </si>
   <si>
-    <t>Luc Rombouts</t>
-  </si>
-  <si>
-    <t>Daarinde Helder</t>
-  </si>
-  <si>
     <t xml:space="preserve">A-jeugd </t>
   </si>
   <si>
@@ -1917,101 +1817,135 @@
     <t>Fenna de Vries</t>
   </si>
   <si>
-    <t>Afke Wijnstra</t>
+    <t>Rozemarijn van Dijk</t>
+  </si>
+  <si>
+    <t>Enna de Boer</t>
+  </si>
+  <si>
+    <t>Demi Weggemans</t>
+  </si>
+  <si>
+    <t>Dyanne Veldman</t>
+  </si>
+  <si>
+    <t>Ties Oosterhof</t>
+  </si>
+  <si>
+    <t>Rebecca Groote</t>
+  </si>
+  <si>
+    <t>Amerins van der Steen</t>
+  </si>
+  <si>
+    <t>Fardau Feenstra</t>
+  </si>
+  <si>
+    <t>Gemma van der Werff</t>
+  </si>
+  <si>
+    <t>Merel Veenstra</t>
+  </si>
+  <si>
+    <t>Floor Leffers</t>
+  </si>
+  <si>
+    <t>Esmee Hendrik</t>
+  </si>
+  <si>
+    <t>Yelin Bosma</t>
+  </si>
+  <si>
+    <t>Marissa Nijssen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV Donkerbroek </t>
+  </si>
+  <si>
+    <t>Stefano Stienstra</t>
+  </si>
+  <si>
+    <t>Melissa Kraak</t>
+  </si>
+  <si>
+    <t>Jannie Bos</t>
+  </si>
+  <si>
+    <t>Rosanna van Baardwijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-junior </t>
+  </si>
+  <si>
+    <t>Leon Riddersma</t>
+  </si>
+  <si>
+    <t>Else Mare Haisma</t>
+  </si>
+  <si>
+    <t>Juan Scheper</t>
+  </si>
+  <si>
+    <t>Sarah Douma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa Mulder </t>
+  </si>
+  <si>
+    <t>Benthe Kroezen</t>
+  </si>
+  <si>
+    <t>Ciska Snip</t>
+  </si>
+  <si>
+    <t>Janet van der Meulen</t>
+  </si>
+  <si>
+    <t>Petra Nicolai</t>
+  </si>
+  <si>
+    <t>Romy Sluimer</t>
+  </si>
+  <si>
+    <t>Chayenna de Jonge</t>
+  </si>
+  <si>
+    <t>Roos Heeringa</t>
+  </si>
+  <si>
+    <t>Rixt de Jong</t>
   </si>
   <si>
     <t>Else Brink</t>
   </si>
   <si>
-    <t>Rozemarijn van Dijk</t>
-  </si>
-  <si>
-    <t>Enna de Boer</t>
-  </si>
-  <si>
-    <t>Demi Weggemans</t>
-  </si>
-  <si>
-    <t>Dyanne Veldman</t>
-  </si>
-  <si>
-    <t>Ties Oosterhof</t>
-  </si>
-  <si>
-    <t>Rebecca Groote</t>
-  </si>
-  <si>
-    <t>Amerins van der Steen</t>
-  </si>
-  <si>
-    <t>Fardau Feenstra</t>
-  </si>
-  <si>
-    <t>Gemma van der Werff</t>
-  </si>
-  <si>
-    <t>Merel Veenstra</t>
-  </si>
-  <si>
-    <t>Floor Leffers</t>
-  </si>
-  <si>
-    <t>Esmee Hendrik</t>
-  </si>
-  <si>
-    <t>Yelin Bosma</t>
-  </si>
-  <si>
-    <t>Marissa Nijssen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV Donkerbroek </t>
-  </si>
-  <si>
-    <t>Stefano Stienstra</t>
-  </si>
-  <si>
-    <t>Melissa Kraak</t>
-  </si>
-  <si>
-    <t>Jannie Bos</t>
-  </si>
-  <si>
-    <t>Rosanna van Baardwijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-junior </t>
-  </si>
-  <si>
-    <t>Leon Riddersma</t>
-  </si>
-  <si>
-    <t>Else Mare Haisma</t>
-  </si>
-  <si>
-    <t>Juan Scheper</t>
-  </si>
-  <si>
-    <t>Sarah Douma</t>
-  </si>
-  <si>
-    <t>Benthe Kroezen</t>
-  </si>
-  <si>
-    <t>Lisa Mulder</t>
+    <t>Julia Veentjer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2034,9 +1968,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2351,13 +2290,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA474AE3-6C2D-374A-B066-C8C31CAD3FFD}">
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A103"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
@@ -2365,8 +2304,8 @@
     <col min="4" max="4" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2420,16 +2359,16 @@
         <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>79</v>
@@ -2443,16 +2382,16 @@
         <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>79</v>
@@ -2463,19 +2402,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>79</v>
@@ -2486,19 +2425,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>79</v>
@@ -2509,62 +2448,56 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>441</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>167</v>
+        <v>442</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>141</v>
+        <v>360</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>371</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>79</v>
@@ -2575,16 +2508,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>79</v>
@@ -2595,16 +2528,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>79</v>
@@ -2615,16 +2548,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>421</v>
+        <v>619</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>79</v>
@@ -2635,16 +2568,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>79</v>
@@ -2655,16 +2588,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>461</v>
+        <v>389</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>462</v>
+        <v>390</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>79</v>
@@ -2675,16 +2608,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>415</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>416</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>79</v>
@@ -2695,16 +2628,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>468</v>
+        <v>411</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>79</v>
@@ -2715,39 +2648,42 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>425</v>
+        <v>354</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>426</v>
+        <v>355</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>473</v>
+        <v>252</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>474</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>12</v>
@@ -2755,62 +2691,68 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>401</v>
+        <v>349</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>243</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>624</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>360</v>
+        <v>232</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>18</v>
@@ -2818,22 +2760,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>18</v>
@@ -2841,22 +2783,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>241</v>
+        <v>339</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>18</v>
@@ -2864,22 +2806,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>18</v>
@@ -2887,22 +2829,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>367</v>
+        <v>303</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>627</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>18</v>
@@ -2910,22 +2852,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>18</v>
@@ -2933,22 +2875,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>18</v>
@@ -2956,65 +2898,59 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>353</v>
+        <v>225</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>355</v>
+        <v>226</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>12</v>
@@ -3022,19 +2958,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>12</v>
@@ -3042,19 +2978,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>12</v>
@@ -3062,19 +2998,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>12</v>
@@ -3082,19 +3018,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>12</v>
@@ -3102,19 +3038,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>12</v>
@@ -3122,19 +3058,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
@@ -3142,19 +3078,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>12</v>
@@ -3162,19 +3098,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>12</v>
@@ -3182,19 +3118,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>12</v>
@@ -3202,19 +3138,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>12</v>
@@ -3222,19 +3158,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>12</v>
@@ -3242,19 +3178,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>226</v>
+        <v>332</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>227</v>
+        <v>333</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>12</v>
@@ -3262,39 +3198,39 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>12</v>
@@ -3302,19 +3238,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
+        <v>20</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>12</v>
@@ -3322,19 +3258,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>342</v>
+        <v>213</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>343</v>
+        <v>214</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>12</v>
@@ -3342,19 +3278,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>12</v>
@@ -3362,19 +3298,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>12</v>
@@ -3382,19 +3318,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>324</v>
+        <v>207</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>12</v>
@@ -3402,19 +3338,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>12</v>
@@ -3422,19 +3358,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>12</v>
@@ -3442,19 +3378,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>12</v>
@@ -3462,19 +3398,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>291</v>
+        <v>198</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>12</v>
@@ -3482,19 +3418,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>12</v>
@@ -3502,19 +3438,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>12</v>
@@ -3522,213 +3458,243 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>330</v>
+        <v>87</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>331</v>
+        <v>88</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>215</v>
+        <v>178</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
+        <v>43</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>245</v>
+        <v>37</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>309</v>
+        <v>95</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>310</v>
+        <v>96</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>316</v>
+        <v>46</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>317</v>
+        <v>47</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>229</v>
+        <v>57</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>207</v>
+        <v>65</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>270</v>
+        <v>99</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>271</v>
+        <v>100</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>338</v>
+        <v>169</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>301</v>
+        <v>109</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>16</v>
@@ -3737,52 +3703,58 @@
         <v>17</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>81</v>
+        <v>117</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>185</v>
@@ -3794,7 +3766,7 @@
         <v>187</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>17</v>
@@ -3805,19 +3777,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>17</v>
@@ -3828,19 +3800,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>17</v>
@@ -3851,19 +3823,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>17</v>
@@ -3874,19 +3846,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>47</v>
+        <v>264</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>17</v>
@@ -3897,154 +3869,133 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>178</v>
+        <v>283</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>13</v>
+        <v>291</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>15</v>
+        <v>292</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>16</v>
@@ -4053,73 +4004,67 @@
         <v>17</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>18</v>
@@ -4127,22 +4072,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>18</v>
@@ -4150,148 +4095,142 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>368</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>197</v>
+        <v>165</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>368</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>190</v>
+        <v>618</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>192</v>
+        <v>617</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>11</v>
@@ -4302,16 +4241,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>653</v>
+        <v>128</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>654</v>
+        <v>129</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>11</v>
@@ -4322,16 +4261,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>11</v>
@@ -4342,16 +4281,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>11</v>
@@ -4362,16 +4301,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>11</v>
@@ -4382,16 +4321,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>11</v>
@@ -4402,16 +4341,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>11</v>
@@ -4422,16 +4361,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>11</v>
@@ -4442,119 +4381,154 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>70</v>
+        <v>457</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>71</v>
+        <v>458</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>43</v>
+        <v>473</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>44</v>
+        <v>474</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>121</v>
+        <v>450</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>122</v>
+        <v>451</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>123</v>
+        <v>368</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>62</v>
+        <v>462</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>63</v>
+        <v>463</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>113</v>
+        <v>468</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>114</v>
+        <v>469</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="G103" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>146</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>451</v>
+        <v>358</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>452</v>
+        <v>359</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>52</v>
+        <v>360</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>12</v>
@@ -4562,19 +4536,19 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>12</v>
@@ -4582,19 +4556,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>12</v>
@@ -4602,19 +4576,19 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>510</v>
+        <v>366</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>511</v>
+        <v>367</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>12</v>
@@ -4622,7 +4596,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>377</v>
@@ -4631,10 +4605,10 @@
         <v>378</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>379</v>
+        <v>74</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>12</v>
@@ -4642,19 +4616,22 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>389</v>
+        <v>421</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>12</v>
@@ -4665,16 +4642,16 @@
         <v>153</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>12</v>
@@ -4685,16 +4662,16 @@
         <v>154</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>12</v>
@@ -4705,16 +4682,16 @@
         <v>155</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>12</v>
@@ -4725,16 +4702,16 @@
         <v>156</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>12</v>
@@ -4745,16 +4722,16 @@
         <v>157</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>12</v>
@@ -4765,16 +4742,16 @@
         <v>158</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>12</v>
@@ -4785,16 +4762,16 @@
         <v>159</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>12</v>
@@ -4805,16 +4782,16 @@
         <v>160</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>12</v>
@@ -4825,16 +4802,16 @@
         <v>161</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>12</v>
@@ -4842,68 +4819,65 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>440</v>
+        <v>626</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>442</v>
+        <v>625</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>163</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>482</v>
+        <v>224</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>483</v>
+        <v>424</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>484</v>
+        <v>425</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>498</v>
+        <v>403</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>499</v>
+        <v>404</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>52</v>
+        <v>368</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>18</v>
@@ -4911,22 +4885,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>379</v>
+        <v>49</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>18</v>
@@ -4934,22 +4908,22 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>379</v>
+        <v>115</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>18</v>
@@ -4957,22 +4931,22 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>18</v>
@@ -4980,22 +4954,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>18</v>
@@ -5003,22 +4977,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>488</v>
+        <v>407</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>489</v>
+        <v>408</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>18</v>
@@ -5026,22 +5000,22 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>18</v>
@@ -5049,22 +5023,22 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>18</v>
@@ -5072,91 +5046,82 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>470</v>
+        <v>50</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>472</v>
+        <v>51</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>493</v>
+        <v>334</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>495</v>
+        <v>335</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>422</v>
+        <v>613</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>424</v>
+        <v>614</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>458</v>
+        <v>555</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>459</v>
+        <v>556</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>460</v>
+        <v>557</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>346</v>
+        <v>53</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>18</v>
@@ -5164,22 +5129,22 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>346</v>
+        <v>53</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>18</v>
@@ -5187,59 +5152,65 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>344</v>
+        <v>504</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>345</v>
+        <v>505</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>346</v>
+        <v>53</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>368</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>649</v>
+        <v>575</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>650</v>
+        <v>576</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>346</v>
+        <v>53</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>586</v>
+        <v>509</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>587</v>
+        <v>510</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>588</v>
+        <v>511</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>53</v>
@@ -5250,19 +5221,19 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>379</v>
+        <v>102</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>53</v>
@@ -5273,19 +5244,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>53</v>
@@ -5296,19 +5267,19 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>607</v>
+        <v>517</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>608</v>
+        <v>518</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>609</v>
+        <v>519</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>45</v>
+        <v>514</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>53</v>
@@ -5319,19 +5290,19 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>53</v>
@@ -5342,19 +5313,19 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>53</v>
@@ -5365,19 +5336,19 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>53</v>
@@ -5388,134 +5359,119 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>596</v>
+        <v>346</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>598</v>
+        <v>347</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>548</v>
+        <v>30</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>550</v>
+        <v>31</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>542</v>
+        <v>32</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>553</v>
+        <v>111</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>555</v>
+        <v>112</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>601</v>
+        <v>97</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>603</v>
+        <v>98</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>591</v>
+        <v>103</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>593</v>
+        <v>104</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>12</v>
@@ -5523,16 +5479,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>22</v>
@@ -5543,16 +5499,16 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>22</v>
@@ -5563,16 +5519,16 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>22</v>
@@ -5583,16 +5539,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>22</v>
@@ -5603,16 +5559,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>22</v>
@@ -5623,16 +5579,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>22</v>
@@ -5643,16 +5599,16 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>22</v>
@@ -5663,16 +5619,17 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D157" s="2"/>
       <c r="E157" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>22</v>
@@ -5683,39 +5640,39 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>12</v>
@@ -5723,19 +5680,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>142</v>
+        <v>621</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>143</v>
+        <v>622</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>12</v>
@@ -5743,19 +5700,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>12</v>
@@ -5763,47 +5720,50 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>98</v>
+        <v>201</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>208</v>
@@ -5815,7 +5775,7 @@
         <v>210</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>75</v>
@@ -5826,16 +5786,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>52</v>
@@ -5849,19 +5809,19 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>327</v>
+        <v>217</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>75</v>
@@ -5872,16 +5832,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>223</v>
+        <v>322</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>224</v>
+        <v>323</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>49</v>
@@ -5895,19 +5855,19 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>75</v>
@@ -5918,19 +5878,19 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>75</v>
@@ -5941,19 +5901,19 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>75</v>
@@ -5964,19 +5924,19 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>340</v>
+        <v>278</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>75</v>
@@ -5987,16 +5947,16 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>16</v>
@@ -6010,19 +5970,19 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>75</v>
@@ -6033,62 +5993,56 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>75</v>
@@ -6099,122 +6053,160 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>83</v>
+        <v>533</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>84</v>
+        <v>534</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>75</v>
+        <v>365</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>91</v>
+        <v>543</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>92</v>
+        <v>544</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>75</v>
+        <v>365</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>144</v>
+        <v>415</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>145</v>
+        <v>416</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>99</v>
+        <v>365</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>154</v>
+        <v>384</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>155</v>
+        <v>385</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>75</v>
+        <v>365</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>163</v>
+        <v>374</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>164</v>
+        <v>375</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>99</v>
+        <v>365</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>219</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>564</v>
+        <v>620</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>565</v>
+        <v>380</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>442</v>
+        <v>381</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>18</v>
@@ -6222,22 +6214,22 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>574</v>
+        <v>362</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>575</v>
+        <v>363</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>442</v>
+        <v>364</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>18</v>
@@ -6245,22 +6237,22 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>18</v>
@@ -6268,22 +6260,22 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>18</v>
@@ -6291,22 +6283,22 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>395</v>
+        <v>482</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>396</v>
+        <v>483</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>397</v>
+        <v>484</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>18</v>
@@ -6314,22 +6306,22 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>385</v>
+        <v>494</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>386</v>
+        <v>495</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>387</v>
+        <v>496</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>18</v>
@@ -6337,226 +6329,199 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>380</v>
+        <v>593</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>382</v>
+        <v>594</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>390</v>
+        <v>595</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>392</v>
+        <v>596</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>373</v>
+        <v>599</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>512</v>
+        <v>603</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>514</v>
+        <v>604</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>448</v>
+        <v>527</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>450</v>
+        <v>528</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>443</v>
+        <v>538</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>445</v>
+        <v>539</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>517</v>
+        <v>370</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>507</v>
+        <v>584</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>509</v>
+        <v>585</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>376</v>
+        <v>580</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>376</v>
+        <v>580</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>627</v>
+        <v>578</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>628</v>
+        <v>579</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>376</v>
+        <v>580</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>12</v>
@@ -6564,19 +6529,19 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>376</v>
+        <v>580</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>12</v>
@@ -6584,19 +6549,19 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>376</v>
+        <v>580</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>12</v>
@@ -6604,19 +6569,19 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>376</v>
+        <v>580</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>12</v>
@@ -6624,39 +6589,42 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>639</v>
+        <v>296</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>640</v>
+        <v>297</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>558</v>
+        <v>515</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>559</v>
+        <v>516</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>12</v>
@@ -6664,19 +6632,19 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>12</v>
@@ -6684,19 +6652,19 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>381</v>
+        <v>520</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>580</v>
+        <v>521</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>12</v>
@@ -6704,19 +6672,19 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>616</v>
+        <v>507</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>617</v>
+        <v>508</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>612</v>
+        <v>299</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>12</v>
@@ -6724,19 +6692,19 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>621</v>
+        <v>512</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>622</v>
+        <v>513</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>96</v>
+        <v>514</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>612</v>
+        <v>299</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>12</v>
@@ -6744,19 +6712,19 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>610</v>
+        <v>562</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>611</v>
+        <v>563</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>612</v>
+        <v>299</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>12</v>
@@ -6764,19 +6732,19 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>625</v>
+        <v>567</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>626</v>
+        <v>568</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>612</v>
+        <v>299</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>12</v>
@@ -6784,19 +6752,19 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>623</v>
+        <v>525</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>624</v>
+        <v>526</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>612</v>
+        <v>299</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>12</v>
@@ -6804,19 +6772,19 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>644</v>
+        <v>553</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>645</v>
+        <v>554</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>379</v>
+        <v>16</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>612</v>
+        <v>299</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>12</v>
@@ -6824,19 +6792,19 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>546</v>
+        <v>379</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>12</v>
@@ -6844,99 +6812,111 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>530</v>
+        <v>287</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>531</v>
+        <v>288</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>551</v>
+        <v>340</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>552</v>
+        <v>341</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>535</v>
+        <v>351</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>536</v>
+        <v>352</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>540</v>
+        <v>476</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>541</v>
+        <v>477</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>308</v>
+        <v>456</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>594</v>
+        <v>453</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>595</v>
+        <v>454</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>110</v>
+        <v>455</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>308</v>
+        <v>456</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>12</v>
@@ -6944,19 +6924,19 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>599</v>
+        <v>460</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>600</v>
+        <v>461</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>308</v>
+        <v>456</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>12</v>
@@ -6964,19 +6944,19 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>556</v>
+        <v>465</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>557</v>
+        <v>466</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>110</v>
+        <v>467</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>308</v>
+        <v>456</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>12</v>
@@ -6984,19 +6964,19 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>584</v>
+        <v>471</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>585</v>
+        <v>472</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>16</v>
+        <v>455</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>308</v>
+        <v>456</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>12</v>
@@ -7004,19 +6984,19 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>308</v>
+        <v>612</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>12</v>
@@ -7024,45 +7004,42 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>356</v>
+        <v>615</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>358</v>
+        <v>616</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>299</v>
+        <v>612</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>313</v>
+        <v>529</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>314</v>
+        <v>530</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>315</v>
+        <v>531</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>299</v>
+        <v>532</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>18</v>
@@ -7070,22 +7047,22 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>296</v>
+        <v>535</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>297</v>
+        <v>536</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>298</v>
+        <v>537</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>299</v>
+        <v>532</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>18</v>
@@ -7093,22 +7070,22 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>305</v>
+        <v>540</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>306</v>
+        <v>541</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>307</v>
+        <v>542</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>308</v>
+        <v>532</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>18</v>
@@ -7116,22 +7093,22 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>350</v>
+        <v>545</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>351</v>
+        <v>546</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>352</v>
+        <v>547</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>16</v>
+        <v>548</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>299</v>
+        <v>532</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>18</v>
@@ -7139,45 +7116,65 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>362</v>
+        <v>160</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>364</v>
+        <v>162</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>502</v>
+        <v>152</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>503</v>
+        <v>153</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>504</v>
+        <v>154</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>481</v>
+        <v>145</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>18</v>
@@ -7185,39 +7182,42 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>478</v>
+        <v>141</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>479</v>
+        <v>142</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>480</v>
+        <v>144</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>481</v>
+        <v>145</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>485</v>
+        <v>601</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>486</v>
+        <v>602</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>39</v>
+        <v>583</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>481</v>
+        <v>145</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>12</v>
@@ -7225,39 +7225,39 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>490</v>
+        <v>597</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>491</v>
+        <v>598</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>492</v>
+        <v>583</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>481</v>
+        <v>145</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>497</v>
+        <v>573</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>481</v>
+        <v>574</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>12</v>
@@ -7265,332 +7265,36 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>646</v>
+        <v>581</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>45</v>
+        <v>583</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>648</v>
+        <v>586</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
-        <v>230</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
-        <v>231</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
-        <v>232</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
-        <v>233</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
-        <v>234</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
-        <v>226</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
-        <v>242</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
-        <v>243</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
-        <v>244</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
-        <v>241</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
-        <v>248</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
-        <v>245</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{13A9A6B6-722A-0748-800C-FBE2DCFB8171}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G249">
-    <sortCondition descending="1" ref="F2:F249"/>
-    <sortCondition ref="G2:G249"/>
-    <sortCondition ref="A2:A249"/>
+  <autoFilter ref="A1:G1" xr:uid="{A99EF8E9-FFE6-4B45-8599-E73406728221}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G234">
+      <sortCondition descending="1" ref="F1:F234"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I234">
+    <sortCondition descending="1" ref="F1:F234"/>
+    <sortCondition ref="G1:G234"/>
+    <sortCondition ref="A1:A234"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>